--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_0.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_22_0.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-2736235.345119935</v>
+        <v>-2738834.140090597</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.493767343</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>16355129.04473782</v>
+        <v>16355129.04473781</v>
       </c>
     </row>
     <row r="11">
@@ -659,10 +659,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>319.9405638778945</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>70.4324850406163</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -671,13 +671,13 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>410.9811492522526</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>295.2163363185219</v>
       </c>
       <c r="I2" t="n">
-        <v>43.86785806562895</v>
+        <v>43.86785806562904</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,7 +707,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>110.5418770458107</v>
+        <v>110.5418770458108</v>
       </c>
       <c r="T2" t="n">
         <v>204.1780969433633</v>
@@ -747,7 +747,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>112.7678564651346</v>
+        <v>92.85596119227733</v>
       </c>
       <c r="G3" t="n">
         <v>135.0312635940655</v>
@@ -756,7 +756,7 @@
         <v>89.90394266080568</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>19.91189527285532</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.116953416516708</v>
+        <v>2.116953416516765</v>
       </c>
       <c r="S3" t="n">
         <v>128.73407520327</v>
@@ -862,10 +862,10 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>90.13067551456429</v>
+        <v>90.13067551456432</v>
       </c>
       <c r="S4" t="n">
-        <v>190.2335559203903</v>
+        <v>190.2335559203904</v>
       </c>
       <c r="T4" t="n">
         <v>219.6628404482119</v>
@@ -874,10 +874,10 @@
         <v>286.2132921354687</v>
       </c>
       <c r="V4" t="n">
-        <v>33.6914623282775</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>33.69146232827637</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -896,22 +896,22 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>335.6189877696322</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>36.95558184798671</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824772</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1054,25 +1054,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>23.35772589727822</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>28.43919684076941</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>379.2486623567079</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>382.4827461567857</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1227,10 +1227,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1257,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
         <v>167.2468210986278</v>
@@ -1297,7 +1297,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1336,10 +1336,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>97.27989568773742</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
@@ -1351,10 +1351,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>93.47758125341751</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>99.97427419833785</v>
+        <v>99.97427419833897</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1768,16 +1768,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>83.0656089242819</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>99.97427419833785</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1810,16 +1810,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016447</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>217.405450327288</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892444</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -2005,22 +2005,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>18.70843787977293</v>
+        <v>83.06560892428185</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2050,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016452</v>
       </c>
       <c r="T19" t="n">
-        <v>217.405450327288</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892435</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2081,7 +2081,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
         <v>354.683041620683</v>
@@ -2132,7 +2132,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2239,22 +2239,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>110.0177171766857</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>102.1557845699817</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012162</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U22" t="n">
-        <v>286.184474389244</v>
+        <v>286.1844743892453</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2491,7 +2491,7 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>99.97427419833787</v>
+        <v>99.9742741983392</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012163</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016447</v>
+        <v>181.0262860016445</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272882</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892442</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2555,7 +2555,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710071</v>
       </c>
       <c r="D26" t="n">
         <v>354.683041620683</v>
@@ -2725,13 +2725,13 @@
         <v>121.1364005308915</v>
       </c>
       <c r="G28" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H28" t="n">
         <v>116.0100653541841</v>
       </c>
       <c r="I28" t="n">
-        <v>56.98118882652614</v>
+        <v>56.98118882652574</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>42.09059921808293</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S28" t="n">
         <v>156.7416385096049</v>
@@ -2767,7 +2767,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U28" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V28" t="n">
         <v>227.8529958317883</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>42.09059921808248</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S31" t="n">
         <v>156.7416385096049</v>
@@ -3004,7 +3004,7 @@
         <v>193.1208028352485</v>
       </c>
       <c r="U31" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V31" t="n">
         <v>227.8529958317883</v>
@@ -3232,16 +3232,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808194</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S34" t="n">
-        <v>156.7416385096047</v>
+        <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
         <v>193.1208028352485</v>
       </c>
       <c r="U34" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972053</v>
       </c>
       <c r="V34" t="n">
         <v>227.8529958317883</v>
@@ -3272,7 +3272,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,10 +3427,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
         <v>121.1364005308915</v>
@@ -3439,10 +3439,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.9811888265258</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808196</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S37" t="n">
-        <v>156.7416385096049</v>
+        <v>156.7416385096051</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
-        <v>261.8998268972048</v>
+        <v>261.8998268972044</v>
       </c>
       <c r="V37" t="n">
         <v>227.8529958317883</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652582</v>
+        <v>56.9811888265258</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3715,7 +3715,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U40" t="n">
-        <v>261.8998268972051</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V40" t="n">
         <v>227.8529958317883</v>
@@ -3743,7 +3743,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3901,7 +3901,7 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D43" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
         <v>122.1493151545295</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652584</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808199</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
@@ -3952,7 +3952,7 @@
         <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
-        <v>261.8998268972044</v>
+        <v>261.8998268972048</v>
       </c>
       <c r="V43" t="n">
         <v>227.8529958317883</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4153,7 +4153,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652581</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808196</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
-        <v>261.8998268972039</v>
+        <v>261.8998268972046</v>
       </c>
       <c r="V46" t="n">
         <v>227.8529958317883</v>
@@ -4304,34 +4304,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>847.6787171265792</v>
+        <v>847.6787171265773</v>
       </c>
       <c r="C2" t="n">
-        <v>524.5064303812308</v>
+        <v>478.7162001861657</v>
       </c>
       <c r="D2" t="n">
-        <v>524.5064303812308</v>
+        <v>407.572275902715</v>
       </c>
       <c r="E2" t="n">
-        <v>524.5064303812308</v>
+        <v>407.572275902715</v>
       </c>
       <c r="F2" t="n">
-        <v>524.5064303812308</v>
+        <v>407.572275902715</v>
       </c>
       <c r="G2" t="n">
-        <v>109.3739563890564</v>
+        <v>407.572275902715</v>
       </c>
       <c r="H2" t="n">
-        <v>109.3739563890564</v>
+        <v>109.3739563890565</v>
       </c>
       <c r="I2" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="J2" t="n">
         <v>248.9490509731309</v>
       </c>
       <c r="K2" t="n">
-        <v>575.2851091032915</v>
+        <v>575.2851091032912</v>
       </c>
       <c r="L2" t="n">
         <v>1017.035607679883</v>
@@ -4340,40 +4340,40 @@
         <v>1540.237590999098</v>
       </c>
       <c r="N2" t="n">
-        <v>2076.519337778084</v>
+        <v>2076.519337778083</v>
       </c>
       <c r="O2" t="n">
-        <v>2569.579722854078</v>
+        <v>2569.579722854077</v>
       </c>
       <c r="P2" t="n">
-        <v>2955.894353302313</v>
+        <v>2955.894353302311</v>
       </c>
       <c r="Q2" t="n">
-        <v>3197.827805704725</v>
+        <v>3197.827805704723</v>
       </c>
       <c r="R2" t="n">
-        <v>3253.149432299843</v>
+        <v>3253.149432299842</v>
       </c>
       <c r="S2" t="n">
-        <v>3141.490970637408</v>
+        <v>3141.490970637407</v>
       </c>
       <c r="T2" t="n">
-        <v>2935.250468674415</v>
+        <v>2935.250468674414</v>
       </c>
       <c r="U2" t="n">
-        <v>2681.715190041277</v>
+        <v>2681.715190041275</v>
       </c>
       <c r="V2" t="n">
-        <v>2350.652302697707</v>
+        <v>2350.652302697705</v>
       </c>
       <c r="W2" t="n">
-        <v>1997.883647427592</v>
+        <v>1997.883647427591</v>
       </c>
       <c r="X2" t="n">
-        <v>1624.417889166513</v>
+        <v>1624.417889166511</v>
       </c>
       <c r="Y2" t="n">
-        <v>1234.278557190701</v>
+        <v>1234.278557190699</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>888.8020873615133</v>
+        <v>888.8020873615114</v>
       </c>
       <c r="C3" t="n">
-        <v>714.3490580803863</v>
+        <v>714.3490580803845</v>
       </c>
       <c r="D3" t="n">
-        <v>565.4146484191351</v>
+        <v>565.4146484191331</v>
       </c>
       <c r="E3" t="n">
-        <v>406.1771934136796</v>
+        <v>406.1771934136775</v>
       </c>
       <c r="F3" t="n">
-        <v>292.2702676913214</v>
+        <v>312.383293219458</v>
       </c>
       <c r="G3" t="n">
-        <v>155.87505193974</v>
+        <v>175.9880774678766</v>
       </c>
       <c r="H3" t="n">
-        <v>65.06298864599685</v>
+        <v>85.17601417413353</v>
       </c>
       <c r="I3" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="J3" t="n">
-        <v>155.7664206654049</v>
+        <v>155.7664206654044</v>
       </c>
       <c r="K3" t="n">
-        <v>388.9478577415914</v>
+        <v>388.9478577415906</v>
       </c>
       <c r="L3" t="n">
-        <v>748.8116174223348</v>
+        <v>748.8116174223335</v>
       </c>
       <c r="M3" t="n">
-        <v>1188.11251946505</v>
+        <v>1188.112519465049</v>
       </c>
       <c r="N3" t="n">
-        <v>1653.449054119952</v>
+        <v>1653.44905411995</v>
       </c>
       <c r="O3" t="n">
-        <v>2056.921277259249</v>
+        <v>2056.921277259247</v>
       </c>
       <c r="P3" t="n">
-        <v>2361.410240824784</v>
+        <v>2361.410240824783</v>
       </c>
       <c r="Q3" t="n">
-        <v>2515.033852890302</v>
+        <v>2515.0338528903</v>
       </c>
       <c r="R3" t="n">
-        <v>2512.895516105942</v>
+        <v>2512.89551610594</v>
       </c>
       <c r="S3" t="n">
-        <v>2382.861096708699</v>
+        <v>2382.861096708697</v>
       </c>
       <c r="T3" t="n">
-        <v>2190.088648044979</v>
+        <v>2190.088648044977</v>
       </c>
       <c r="U3" t="n">
-        <v>1962.018688312013</v>
+        <v>1962.01868831201</v>
       </c>
       <c r="V3" t="n">
-        <v>1726.86658008027</v>
+        <v>1726.866580080268</v>
       </c>
       <c r="W3" t="n">
-        <v>1472.629223352068</v>
+        <v>1472.629223352066</v>
       </c>
       <c r="X3" t="n">
-        <v>1264.777723146535</v>
+        <v>1264.777723146533</v>
       </c>
       <c r="Y3" t="n">
-        <v>1057.017424381581</v>
+        <v>1057.01742438158</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="C4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="D4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="E4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="F4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="G4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="H4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="I4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="J4" t="n">
-        <v>75.02005212274275</v>
+        <v>75.02005212274264</v>
       </c>
       <c r="K4" t="n">
-        <v>170.2650045033534</v>
+        <v>170.2650045033532</v>
       </c>
       <c r="L4" t="n">
-        <v>322.0515495633496</v>
+        <v>322.0515495633492</v>
       </c>
       <c r="M4" t="n">
-        <v>485.3474622992789</v>
+        <v>485.3474622992785</v>
       </c>
       <c r="N4" t="n">
-        <v>652.618089120607</v>
+        <v>652.6180891206066</v>
       </c>
       <c r="O4" t="n">
-        <v>786.8064976079671</v>
+        <v>786.8064976079664</v>
       </c>
       <c r="P4" t="n">
-        <v>882.565891698328</v>
+        <v>882.5658916983273</v>
       </c>
       <c r="Q4" t="n">
-        <v>893.2769546529794</v>
+        <v>893.2769546529786</v>
       </c>
       <c r="R4" t="n">
-        <v>802.2358682746316</v>
+        <v>802.2358682746308</v>
       </c>
       <c r="S4" t="n">
-        <v>610.0807612843383</v>
+        <v>610.0807612843374</v>
       </c>
       <c r="T4" t="n">
-        <v>388.1991042659425</v>
+        <v>388.1991042659414</v>
       </c>
       <c r="U4" t="n">
-        <v>99.09476877557009</v>
+        <v>99.09476877556894</v>
       </c>
       <c r="V4" t="n">
-        <v>65.06298864599685</v>
+        <v>99.09476877556894</v>
       </c>
       <c r="W4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="X4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
       <c r="Y4" t="n">
-        <v>65.06298864599685</v>
+        <v>65.06298864599684</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1274.580917301916</v>
+        <v>1921.870414581995</v>
       </c>
       <c r="C5" t="n">
-        <v>1274.580917301916</v>
+        <v>1552.907897641583</v>
       </c>
       <c r="D5" t="n">
-        <v>916.3152186951659</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>523.5814653477182</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
@@ -4565,22 +4565,22 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
         <v>3018.302393296687</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520489</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794325</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.97538618064</v>
+        <v>3072.075344883008</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2698.609586621928</v>
       </c>
       <c r="Y5" t="n">
-        <v>1661.180757366038</v>
+        <v>2308.470254646116</v>
       </c>
     </row>
     <row r="6">
@@ -4620,37 +4620,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064525</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158133</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4702,22 +4702,22 @@
         <v>409.1586012949293</v>
       </c>
       <c r="C7" t="n">
-        <v>240.2224183670224</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="D7" t="n">
-        <v>90.10577895468668</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="E7" t="n">
-        <v>66.51211643218343</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="F7" t="n">
-        <v>66.51211643218343</v>
+        <v>409.1586012949293</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218343</v>
+        <v>241.4557646696483</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218343</v>
+        <v>95.23857788750607</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218343</v>
@@ -4778,34 +4778,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1664.678443125552</v>
+        <v>1495.089731832625</v>
       </c>
       <c r="C8" t="n">
-        <v>1295.71592618514</v>
+        <v>1126.127214892214</v>
       </c>
       <c r="D8" t="n">
-        <v>1295.71592618514</v>
+        <v>767.8615162854633</v>
       </c>
       <c r="E8" t="n">
-        <v>909.9276735868957</v>
+        <v>382.0732636872191</v>
       </c>
       <c r="F8" t="n">
-        <v>523.5814653477182</v>
+        <v>375.1277629380156</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>364.0957168234162</v>
       </c>
       <c r="H8" t="n">
-        <v>108.5090151927147</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810559</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
@@ -4814,40 +4814,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450753</v>
+        <v>2994.542934265599</v>
       </c>
       <c r="W8" t="n">
-        <v>2424.744041450753</v>
+        <v>2641.774278995485</v>
       </c>
       <c r="X8" t="n">
-        <v>2051.278283189673</v>
+        <v>2268.308520734405</v>
       </c>
       <c r="Y8" t="n">
-        <v>2051.278283189673</v>
+        <v>1878.169188758593</v>
       </c>
     </row>
     <row r="9">
@@ -4872,22 +4872,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228005</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4936,40 +4936,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>235.4482993600903</v>
+        <v>383.3613929424835</v>
       </c>
       <c r="C10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="D10" t="n">
-        <v>66.51211643218342</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="F10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="G10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J10" t="n">
         <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4981,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1739.201569949316</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1517.434954518842</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1228.332087644485</v>
+        <v>1134.908724368016</v>
       </c>
       <c r="V10" t="n">
-        <v>973.6475994385985</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="W10" t="n">
-        <v>684.2304294016378</v>
+        <v>880.2242361621296</v>
       </c>
       <c r="X10" t="n">
-        <v>456.2408785036205</v>
+        <v>785.8024369162533</v>
       </c>
       <c r="Y10" t="n">
-        <v>235.4482993600903</v>
+        <v>565.0098577727232</v>
       </c>
     </row>
     <row r="11">
@@ -5045,13 +5045,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
         <v>3640.42229106801</v>
@@ -5060,7 +5060,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5173,13 +5173,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.853600740071</v>
+        <v>513.853600740072</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121651</v>
       </c>
       <c r="D13" t="n">
-        <v>194.8007783998282</v>
+        <v>194.8007783998294</v>
       </c>
       <c r="E13" t="n">
         <v>93.81666304797187</v>
@@ -5209,40 +5209,40 @@
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138419</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703117</v>
       </c>
     </row>
     <row r="14">
@@ -5267,37 +5267,37 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111716</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
@@ -5364,7 +5364,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M15" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N15" t="n">
         <v>1307.627092998424</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400714</v>
+        <v>513.8536007400709</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121646</v>
+        <v>344.917417812164</v>
       </c>
       <c r="D16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>194.8007783998283</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797741</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,13 +5458,13 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
         <v>1688.385853854706</v>
@@ -5473,13 +5473,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138413</v>
+        <v>916.2946447138407</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703112</v>
+        <v>695.5020655703106</v>
       </c>
     </row>
     <row r="17">
@@ -5507,25 +5507,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400716</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121647</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="D19" t="n">
-        <v>194.8007783998289</v>
+        <v>344.9174178121645</v>
       </c>
       <c r="E19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F19" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5689,13 +5689,13 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
         <v>2197.062545487567</v>
@@ -5713,10 +5713,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138414</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703113</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5835,16 +5835,16 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,37 +5884,37 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>197.0043242297716</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797744</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
@@ -5923,22 +5923,22 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
         <v>1688.385853854706</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="23">
@@ -5981,7 +5981,7 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192593</v>
@@ -6072,13 +6072,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,22 +6121,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400722</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121641</v>
+        <v>344.9174178121654</v>
       </c>
       <c r="D25" t="n">
-        <v>194.8007783998282</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="E25" t="n">
-        <v>194.8007783998282</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="F25" t="n">
-        <v>194.8007783998282</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="G25" t="n">
-        <v>194.8007783998282</v>
+        <v>194.8007783998297</v>
       </c>
       <c r="H25" t="n">
         <v>93.81666304797187</v>
@@ -6148,7 +6148,7 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L25" t="n">
         <v>826.1405381797745</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703107</v>
+        <v>695.502065570312</v>
       </c>
     </row>
     <row r="26">
@@ -6215,19 +6215,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6309,13 +6309,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M27" t="n">
-        <v>691.1951506745238</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N27" t="n">
-        <v>1318.79311422913</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319323</v>
       </c>
       <c r="C28" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656817</v>
       </c>
       <c r="D28" t="n">
-        <v>656.9646031150025</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E28" t="n">
-        <v>533.5814564942657</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F28" t="n">
-        <v>411.2214559580117</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G28" t="n">
-        <v>268.555303634548</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H28" t="n">
-        <v>151.3734194384023</v>
+        <v>151.3734194384019</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>198.094482495415</v>
@@ -6388,7 +6388,7 @@
         <v>483.8255460380729</v>
       </c>
       <c r="L28" t="n">
-        <v>898.2659412311324</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M28" t="n">
         <v>1344.317444979286</v>
@@ -6412,10 +6412,10 @@
         <v>2438.456847547834</v>
       </c>
       <c r="T28" t="n">
-        <v>2243.385329532431</v>
+        <v>2243.385329532432</v>
       </c>
       <c r="U28" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V28" t="n">
         <v>1748.685508594055</v>
@@ -6452,19 +6452,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6497,13 +6497,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6601,10 +6601,10 @@
         <v>782.5512955656818</v>
       </c>
       <c r="D31" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E31" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F31" t="n">
         <v>411.2214559580113</v>
@@ -6616,16 +6616,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K31" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L31" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M31" t="n">
         <v>1344.317444979286</v>
@@ -6643,10 +6643,10 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R31" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S31" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T31" t="n">
         <v>2243.385329532432</v>
@@ -6686,22 +6686,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6783,7 +6783,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M33" t="n">
         <v>680.0291294438176</v>
@@ -6832,31 +6832,31 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319321</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656815</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580112</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954151</v>
       </c>
       <c r="K34" t="n">
         <v>483.825546038073</v>
@@ -6889,16 +6889,16 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518751</v>
+        <v>1483.79828551875</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y34" t="n">
         <v>1084.076049400516</v>
@@ -6914,7 +6914,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D35" t="n">
         <v>1590.547811004713</v>
@@ -6926,19 +6926,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6947,37 +6947,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,22 +7008,22 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M36" t="n">
-        <v>691.1951506745238</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
         <v>1307.627092998424</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380729</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311324</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7120,7 +7120,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547835</v>
+        <v>2438.456847547834</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
@@ -7135,7 +7135,7 @@
         <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.33868158239</v>
+        <v>1280.338681582389</v>
       </c>
       <c r="Y37" t="n">
         <v>1084.076049400516</v>
@@ -7160,34 +7160,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7260,10 +7260,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>1318.793114229131</v>
       </c>
       <c r="O39" t="n">
         <v>1859.536823237711</v>
@@ -7306,49 +7306,49 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J40" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.825546038073</v>
       </c>
       <c r="L40" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N40" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O40" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7363,7 +7363,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U40" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
         <v>1748.685508594055</v>
@@ -7400,28 +7400,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319325</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656818</v>
+        <v>782.5512955656819</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150024</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942656</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580114</v>
+        <v>411.2214559580115</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7594,7 +7594,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T43" t="n">
         <v>2243.385329532432</v>
@@ -7813,16 +7813,16 @@
         <v>898.2659412311323</v>
       </c>
       <c r="M46" t="n">
-        <v>1344.317444979286</v>
+        <v>1344.317444979287</v>
       </c>
       <c r="N46" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382518</v>
+        <v>2179.340199382519</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q46" t="n">
         <v>2639.297491717215</v>
@@ -7837,10 +7837,10 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838286</v>
+        <v>1978.840049838285</v>
       </c>
       <c r="V46" t="n">
-        <v>1748.685508594056</v>
+        <v>1748.685508594055</v>
       </c>
       <c r="W46" t="n">
         <v>1483.798285518751</v>
@@ -22547,10 +22547,10 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>45.33232789311302</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>284.2505565800666</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -22559,10 +22559,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>410.9811492522526</v>
       </c>
       <c r="H2" t="n">
-        <v>295.2163363185219</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -22635,7 +22635,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>32.30135592824927</v>
+        <v>52.21325120110654</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -22644,7 +22644,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>19.91189527285529</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -22720,10 +22720,10 @@
         <v>166.0524636397191</v>
       </c>
       <c r="H4" t="n">
-        <v>144.9920054808265</v>
+        <v>144.9920054808266</v>
       </c>
       <c r="I4" t="n">
-        <v>97.15402040370427</v>
+        <v>97.15402040370429</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -22762,10 +22762,10 @@
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>218.4461809955505</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>252.8315360083146</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>46.45968844823132</v>
+        <v>46.4596884482302</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -23656,22 +23656,22 @@
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>65.54986409393045</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>45.44677382459339</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23893,22 +23893,22 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>127.7255247667962</v>
+        <v>63.36835372228732</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24127,22 +24127,22 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>57.22910392194214</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>43.26526345294951</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462238</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24379,10 +24379,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>40.32043864788602</v>
+        <v>40.32043864788463</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856548</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1136131.890650283</v>
+        <v>1136131.890650282</v>
       </c>
     </row>
     <row r="3">
@@ -26366,7 +26366,7 @@
         <v>1308430.533701948</v>
       </c>
       <c r="C3" t="n">
-        <v>19312.30676833858</v>
+        <v>19312.30676833907</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26381,28 +26381,28 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-11</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>232219.4755097968</v>
+        <v>232219.4755097967</v>
       </c>
       <c r="K3" t="n">
-        <v>4661.989000940824</v>
+        <v>4661.989000940882</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363174</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,13 +26415,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>572.0114859742004</v>
+        <v>572.0114859742</v>
       </c>
       <c r="C4" t="n">
         <v>93403.78684820631</v>
       </c>
       <c r="D4" t="n">
-        <v>93403.78684820635</v>
+        <v>93403.78684820639</v>
       </c>
       <c r="E4" t="n">
         <v>14216.75207685505</v>
@@ -26439,7 +26439,7 @@
         <v>14216.75207685505</v>
       </c>
       <c r="J4" t="n">
-        <v>22207.61133994853</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="K4" t="n">
         <v>22207.61133994852</v>
@@ -26448,16 +26448,16 @@
         <v>22207.61133994853</v>
       </c>
       <c r="M4" t="n">
+        <v>22207.61133994851</v>
+      </c>
+      <c r="N4" t="n">
         <v>22207.61133994852</v>
       </c>
-      <c r="N4" t="n">
-        <v>22207.61133994851</v>
-      </c>
       <c r="O4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
       <c r="P4" t="n">
-        <v>22207.61133994851</v>
+        <v>22207.61133994852</v>
       </c>
     </row>
     <row r="5">
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1415512.909311426</v>
+        <v>-1415942.468178015</v>
       </c>
       <c r="C6" t="n">
-        <v>-220650.0341779382</v>
+        <v>-220650.0341779387</v>
       </c>
       <c r="D6" t="n">
-        <v>-201337.7274095996</v>
+        <v>-201337.7274095995</v>
       </c>
       <c r="E6" t="n">
-        <v>-440751.7437081175</v>
+        <v>-440786.4816335532</v>
       </c>
       <c r="F6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261979</v>
       </c>
       <c r="G6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261979</v>
       </c>
       <c r="H6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261979</v>
       </c>
       <c r="I6" t="n">
-        <v>-115339.2819007622</v>
+        <v>-115374.0198261979</v>
       </c>
       <c r="J6" t="n">
-        <v>-357591.2027036607</v>
+        <v>-357591.2027036606</v>
       </c>
       <c r="K6" t="n">
-        <v>-130033.7161948047</v>
+        <v>-130033.7161948048</v>
       </c>
       <c r="L6" t="n">
-        <v>-125371.7271938639</v>
+        <v>-125371.7271938638</v>
       </c>
       <c r="M6" t="n">
-        <v>-210426.7551293758</v>
+        <v>-210426.7551293759</v>
       </c>
       <c r="N6" t="n">
         <v>-125371.7271938639</v>
@@ -26701,13 +26701,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K2" t="n">
         <v>24.28464749203973</v>
@@ -26716,16 +26716,16 @@
         <v>24.28464749203975</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
+        <v>24.28464749203972</v>
+      </c>
+      <c r="O2" t="n">
         <v>24.28464749203971</v>
       </c>
-      <c r="O2" t="n">
-        <v>24.2846474920397</v>
-      </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="3">
@@ -26735,7 +26735,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749607</v>
+        <v>813.2873580749605</v>
       </c>
       <c r="C4" t="n">
         <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26820,7 +26820,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26923,13 +26923,13 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1074.995080392018</v>
+        <v>1074.995080392017</v>
       </c>
       <c r="C3" t="n">
-        <v>14.7816202012807</v>
+        <v>14.78162020128116</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>813.2873580749607</v>
+        <v>813.2873580749605</v>
       </c>
       <c r="C4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733239</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749607</v>
+        <v>813.2873580749605</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733239</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27160,13 +27160,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>5.684341886080801e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203967</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>813.2873580749607</v>
+        <v>813.2873580749605</v>
       </c>
       <c r="K4" t="n">
-        <v>18.11409732733216</v>
+        <v>18.11409732733239</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>19.0640538510508</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>349.2823568080669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27774,25 +27774,25 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>123.076236749291</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>67.91322356906868</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>3.485179306772636</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>24.39329958492573</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
@@ -28029,7 +28029,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>92.48912964370447</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -28071,10 +28071,10 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>132.2320741356197</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y28" t="n">
-        <v>24.28464749203974</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
     <row r="29">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203972</v>
       </c>
     </row>
   </sheetData>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.32158826288248</v>
+        <v>4.321588262882478</v>
       </c>
       <c r="H2" t="n">
-        <v>44.25846579724521</v>
+        <v>44.25846579724519</v>
       </c>
       <c r="I2" t="n">
-        <v>166.608031504777</v>
+        <v>166.6080315047769</v>
       </c>
       <c r="J2" t="n">
-        <v>366.7894018268222</v>
+        <v>366.789401826822</v>
       </c>
       <c r="K2" t="n">
-        <v>549.7222329946377</v>
+        <v>549.7222329946375</v>
       </c>
       <c r="L2" t="n">
-        <v>681.9790397948275</v>
+        <v>681.9790397948271</v>
       </c>
       <c r="M2" t="n">
-        <v>758.8330850648638</v>
+        <v>758.8330850648634</v>
       </c>
       <c r="N2" t="n">
-        <v>771.1117977167786</v>
+        <v>771.1117977167784</v>
       </c>
       <c r="O2" t="n">
-        <v>728.1390044277409</v>
+        <v>728.1390044277406</v>
       </c>
       <c r="P2" t="n">
-        <v>621.4497941878296</v>
+        <v>621.4497941878294</v>
       </c>
       <c r="Q2" t="n">
-        <v>466.6829145233507</v>
+        <v>466.6829145233505</v>
       </c>
       <c r="R2" t="n">
-        <v>271.4659687182918</v>
+        <v>271.4659687182917</v>
       </c>
       <c r="S2" t="n">
-        <v>98.47819254043461</v>
+        <v>98.47819254043456</v>
       </c>
       <c r="T2" t="n">
         <v>18.91775262076806</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3457270610305983</v>
+        <v>0.3457270610305981</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.312253569145095</v>
+        <v>2.312253569145093</v>
       </c>
       <c r="H3" t="n">
         <v>22.33150157569078</v>
       </c>
       <c r="I3" t="n">
-        <v>79.61048472714471</v>
+        <v>79.61048472714468</v>
       </c>
       <c r="J3" t="n">
-        <v>218.4572549690986</v>
+        <v>218.4572549690985</v>
       </c>
       <c r="K3" t="n">
-        <v>373.37824410182</v>
+        <v>373.3782441018198</v>
       </c>
       <c r="L3" t="n">
-        <v>502.05312693214</v>
+        <v>502.0531269321398</v>
       </c>
       <c r="M3" t="n">
-        <v>585.8723188136495</v>
+        <v>585.8723188136493</v>
       </c>
       <c r="N3" t="n">
-        <v>601.3786157751533</v>
+        <v>601.3786157751531</v>
       </c>
       <c r="O3" t="n">
-        <v>550.1439445851488</v>
+        <v>550.1439445851486</v>
       </c>
       <c r="P3" t="n">
-        <v>441.5390170764874</v>
+        <v>441.5390170764873</v>
       </c>
       <c r="Q3" t="n">
-        <v>295.1571398087668</v>
+        <v>295.1571398087667</v>
       </c>
       <c r="R3" t="n">
         <v>143.5625505474472</v>
       </c>
       <c r="S3" t="n">
-        <v>42.94909590056785</v>
+        <v>42.94909590056783</v>
       </c>
       <c r="T3" t="n">
-        <v>9.320004517738338</v>
+        <v>9.320004517738335</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1521219453384931</v>
+        <v>0.152121945338493</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31197,49 +31197,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.938515718739704</v>
+        <v>1.938515718739703</v>
       </c>
       <c r="H4" t="n">
         <v>17.23516702661301</v>
       </c>
       <c r="I4" t="n">
-        <v>58.29645452355402</v>
+        <v>58.29645452355399</v>
       </c>
       <c r="J4" t="n">
         <v>137.053061314897</v>
       </c>
       <c r="K4" t="n">
-        <v>225.2202807772128</v>
+        <v>225.2202807772127</v>
       </c>
       <c r="L4" t="n">
-        <v>288.2044187660829</v>
+        <v>288.2044187660828</v>
       </c>
       <c r="M4" t="n">
-        <v>303.8711503475337</v>
+        <v>303.8711503475336</v>
       </c>
       <c r="N4" t="n">
-        <v>296.6457735776859</v>
+        <v>296.6457735776858</v>
       </c>
       <c r="O4" t="n">
-        <v>274.000385408772</v>
+        <v>274.0003854087719</v>
       </c>
       <c r="P4" t="n">
-        <v>234.4546647464819</v>
+        <v>234.4546647464818</v>
       </c>
       <c r="Q4" t="n">
-        <v>162.3242571391947</v>
+        <v>162.3242571391946</v>
       </c>
       <c r="R4" t="n">
-        <v>87.1627158626052</v>
+        <v>87.16271586260517</v>
       </c>
       <c r="S4" t="n">
-        <v>33.78304211658192</v>
+        <v>33.7830421165819</v>
       </c>
       <c r="T4" t="n">
-        <v>8.282748980069641</v>
+        <v>8.282748980069638</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1057372210221658</v>
+        <v>0.1057372210221657</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31513,43 +31513,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31598,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31671,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31686,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31704,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,10 +32066,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>99.52238</v>
@@ -32084,31 +32084,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>734.2678383622665</v>
       </c>
       <c r="N15" t="n">
-        <v>754.0002396832324</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32467,7 +32467,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
         <v>466.7546155663283</v>
@@ -32555,19 +32555,19 @@
         <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157999</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>550.5977692975241</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32792,16 +32792,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P24" t="n">
         <v>561.8765786214698</v>
@@ -33029,7 +33029,7 @@
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
@@ -33038,7 +33038,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>688.8020111197787</v>
+        <v>188.4731159523455</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33424,7 +33424,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M32" t="n">
         <v>965.6463440175675</v>
@@ -33503,10 +33503,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>233.9389431948335</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>99.52238</v>
@@ -33740,34 +33740,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>233.9389431948329</v>
       </c>
       <c r="N36" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817562</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,10 +33962,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
@@ -33980,31 +33980,31 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>688.8020111197783</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>185.7434973001359</v>
+        <v>185.7434973001357</v>
       </c>
       <c r="K2" t="n">
-        <v>329.6323819496571</v>
+        <v>329.6323819496569</v>
       </c>
       <c r="L2" t="n">
-        <v>446.2126248248402</v>
+        <v>446.2126248248399</v>
       </c>
       <c r="M2" t="n">
-        <v>528.4868518375911</v>
+        <v>528.4868518375907</v>
       </c>
       <c r="N2" t="n">
-        <v>541.6987341201877</v>
+        <v>541.6987341201875</v>
       </c>
       <c r="O2" t="n">
-        <v>498.0407930060542</v>
+        <v>498.0407930060538</v>
       </c>
       <c r="P2" t="n">
-        <v>390.2167984325601</v>
+        <v>390.2167984325599</v>
       </c>
       <c r="Q2" t="n">
-        <v>244.3772246489012</v>
+        <v>244.377224648901</v>
       </c>
       <c r="R2" t="n">
-        <v>55.88043090415965</v>
+        <v>55.88043090415954</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>91.61962830243195</v>
+        <v>91.61962830243183</v>
       </c>
       <c r="K3" t="n">
-        <v>235.536805127461</v>
+        <v>235.5368051274608</v>
       </c>
       <c r="L3" t="n">
-        <v>363.4987471522658</v>
+        <v>363.4987471522656</v>
       </c>
       <c r="M3" t="n">
-        <v>443.7382848916312</v>
+        <v>443.7382848916309</v>
       </c>
       <c r="N3" t="n">
-        <v>470.03690369182</v>
+        <v>470.0369036918198</v>
       </c>
       <c r="O3" t="n">
-        <v>407.5477001407044</v>
+        <v>407.5477001407041</v>
       </c>
       <c r="P3" t="n">
-        <v>307.5646096621572</v>
+        <v>307.564609662157</v>
       </c>
       <c r="Q3" t="n">
-        <v>155.1753657227453</v>
+        <v>155.1753657227452</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>10.05763987550093</v>
+        <v>10.05763987550087</v>
       </c>
       <c r="K4" t="n">
-        <v>96.20702260667741</v>
+        <v>96.20702260667733</v>
       </c>
       <c r="L4" t="n">
-        <v>153.3197424848446</v>
+        <v>153.3197424848445</v>
       </c>
       <c r="M4" t="n">
-        <v>164.9453663999286</v>
+        <v>164.9453663999285</v>
       </c>
       <c r="N4" t="n">
-        <v>168.9602291124527</v>
+        <v>168.9602291124526</v>
       </c>
       <c r="O4" t="n">
-        <v>135.5438469569293</v>
+        <v>135.5438469569291</v>
       </c>
       <c r="P4" t="n">
-        <v>96.72666069733427</v>
+        <v>96.72666069733418</v>
       </c>
       <c r="Q4" t="n">
-        <v>10.81925550974881</v>
+        <v>10.81925550974873</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35328,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35343,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35732,22 +35732,22 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>592.1338044402481</v>
       </c>
       <c r="N15" t="n">
-        <v>622.6585275998991</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -36115,7 +36115,7 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
@@ -36203,19 +36203,19 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>416.6233618831939</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36276,13 +36276,13 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
         <v>426.2724270010451</v>
@@ -36291,7 +36291,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36440,16 +36440,16 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P24" t="n">
         <v>427.9021712071395</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
         <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36677,7 +36677,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
@@ -36686,7 +36686,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>546.2057666753343</v>
+        <v>45.87687150790109</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36753,16 +36753,16 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K28" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L28" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M28" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N28" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O28" t="n">
         <v>397.5465471980851</v>
@@ -37072,7 +37072,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M32" t="n">
         <v>735.3001107902948</v>
@@ -37151,10 +37151,10 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402481</v>
+        <v>91.80490927281522</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
@@ -37236,7 +37236,7 @@
         <v>450.5570744930849</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
         <v>397.5465471980852</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,25 +37388,25 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>91.80490927281453</v>
       </c>
       <c r="N36" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,19 +37464,19 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M37" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N37" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O37" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P37" t="n">
         <v>319.9164207986647</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367756</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37628,22 +37628,22 @@
         <v>0</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>546.2057666753338</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,25 +37701,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M40" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N40" t="n">
         <v>445.9107804819471</v>
       </c>
       <c r="O40" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P40" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37956,7 +37956,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38193,7 +38193,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
